--- a/data/trans_camb/P44_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-38,22</t>
+          <t>-16,57</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-54,46</t>
+          <t>-19,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-54,46</t>
+          <t>-19,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,45</t>
+          <t>-19,72</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,97</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-30,15</t>
+          <t>-5,21</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-28,37</t>
+          <t>-8,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-9,18</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-11,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-86,56; 1,51</t>
+          <t>-49,26; 3,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-87,06; -16,86</t>
+          <t>-57,11; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-87,05; -16,9</t>
+          <t>-57,11; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-39,54; 24,47</t>
+          <t>-57,11; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,24; 32,48</t>
+          <t>-9,31; 4,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-35,43; 38,11</t>
+          <t>-8,79; 8,72</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-63,13; 0,82</t>
+          <t>-7,86; 11,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,66; -0,03</t>
+          <t>-13,51; -1,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-65,65; 1,19</t>
+          <t>-29,93; 0,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-29,23; -0,61</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-29,17; -0,1</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-34,68; -3,07</t>
         </is>
       </c>
     </row>
@@ -738,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-70,17%</t>
+          <t>-84,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -753,32 +807,47 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-34,49%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-21,29%</t>
+          <t>-39,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>-11,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-61,39%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-68,63%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-64,57%</t>
+          <t>-73,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-79,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-76,53%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -791,7 +860,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 20,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -811,27 +880,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 439,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 508,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-95,13; 4,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 27,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,95</t>
+          <t>-100,0; 32,97</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 27,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 50,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>-2,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,0</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,35</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-4,46</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-9,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-5,59</t>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,92</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-5,79</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,92; 21,45</t>
+          <t>-4,69; 4,16</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 34,76</t>
+          <t>-6,2; 0,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 21,98</t>
+          <t>-7,09; 0,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 14,79</t>
+          <t>-6,18; 1,49</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 12,17</t>
+          <t>-7,5; 5,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 10,53</t>
+          <t>-11,0; 0,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 12,88</t>
+          <t>-10,41; 1,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,11; 13,46</t>
+          <t>-14,9; -4,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 7,95</t>
+          <t>-4,62; 3,64</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; -0,44</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,75; -0,73</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-9,11; -2,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,53%</t>
+          <t>-8,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>19,26%</t>
+          <t>-63,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,2%</t>
+          <t>-79,73%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-60,54%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-13,33%</t>
+          <t>-8,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-16,1%</t>
+          <t>-48,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>-42,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-87,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-18,11%</t>
+          <t>-7,93%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-53,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-54,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-80,35%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-67,25; 122,41</t>
+          <t>-80,63; 256,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,08; 223,63</t>
+          <t>-100,0; 118,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-76,21; 125,47</t>
+          <t>-100,0; 131,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,58; 60,48</t>
+          <t>-100,0; 330,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 46,84</t>
+          <t>-56,08; 86,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 41,86</t>
+          <t>-79,53; 20,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,93; 52,36</t>
+          <t>-77,29; 28,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,49; 55,38</t>
+          <t>-100,0; -50,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,61; 32,23</t>
+          <t>-50,96; 75,86</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-79,46; -0,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-79,96; -5,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-95,67; -37,9</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-22,73</t>
+          <t>-4,28</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,06</t>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,83</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-37,63; 29,27</t>
+          <t>-7,48; 2,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-47,85; 21,91</t>
+          <t>-8,31; 0,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-53,15; 21,52</t>
+          <t>-9,89; -0,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 26,79</t>
+          <t>-10,16; -1,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,57; 18,32</t>
+          <t>-1,46; 6,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,39; 11,09</t>
+          <t>-2,37; 4,53</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,7; 17,54</t>
+          <t>-3,72; 2,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 13,13</t>
+          <t>-2,69; 4,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 4,53</t>
+          <t>-2,55; 3,73</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 1,91</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 0,27</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 0,74</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>-40,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-31,32%</t>
+          <t>-64,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,03%</t>
+          <t>-86,11%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-11,04%</t>
+          <t>110,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,5%</t>
+          <t>35,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>-7,93%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,99%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,15%</t>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-27,59%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-57,53%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-52,26%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-69,66; 114,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,76; 83,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 93,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-40,03; 138,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-65,62; 91,99</t>
+          <t>-48,73; 792,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-74,93; 61,33</t>
+          <t>-77,09; 569,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 66,9</t>
+          <t>-88,81; 334,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,95; 53,05</t>
+          <t>-82,04; 540,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 23,9</t>
+          <t>-53,19; 186,5</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-76,08; 112,86</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-86,89; 31,97</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-87,55; 54,61</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-10,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-19,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-4,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-6,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 9,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-33,0; 10,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,24; -1,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 10,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-16,42; 8,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 6,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,92; 5,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 5,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,39; -0,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-28,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-27,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-54,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-19,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-20,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,26%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-64,95; 35,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-69,63; 40,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-83,6; 2,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-34,02; 42,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,87; 34,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 27,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-39,8; 22,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-47,29; 18,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,04; -0,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,08</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-5,78</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-5,67</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,02</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,99</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-4,64</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,48</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,84</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-10,41; 0,72</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-12,35; -1,66</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-13,26; -2,63</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; -2,4</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,21; 3,77</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 1,37</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,36; 1,09</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,41; -1,79</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 1,26</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; -1,22</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; -1,59</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; -3,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-49,62%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-79,37%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-90,2%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-88,55%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-31,66%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-31,27%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-72,72%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-19,62%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-54,43%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-60,14%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-80,45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-84,41; 27,37</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-97,29; -31,63</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -51,86</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -40,92</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-39,36; 81,46</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-64,26; 33,5</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-64,64; 32,65</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-89,0; -30,6</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-58,36; 26,75</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-78,34; -25,33</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-81,27; -31,62</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-92,16; -55,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
